--- a/V2-messages/ADT_A04/A04_FakeNames Mapping.xlsx
+++ b/V2-messages/ADT_A04/A04_FakeNames Mapping.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project_surabhi\HL7-v2\V2-messages\ADT_A04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\HL7-v2\V2-messages\ADT_A04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5401B28-8DFC-43CE-8A3B-CA7769770F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="A01_Patient_Delago" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A01_Patient_Delago!$A$1:$F$114</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,15 +39,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6743714A-0519-40BD-AC6C-1D4AAB9E4126}" keepAlive="1" name="Query - A01_Patient_Delago" description="Connection to the 'A01_Patient_Delago' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - A01_Patient_Delago" description="Connection to the 'A01_Patient_Delago' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=A01_Patient_Delago;Extended Properties=&quot;&quot;" command="SELECT * FROM [A01_Patient_Delago]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1007">
   <si>
     <t>MSH.1</t>
   </si>
@@ -365,9 +364,6 @@
     <t>PID.10.3</t>
   </si>
   <si>
-    <t>HL70005</t>
-  </si>
-  <si>
     <t>PID.11.1</t>
   </si>
   <si>
@@ -446,9 +442,6 @@
     <t>PID.15.1</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>PID.15.2</t>
   </si>
   <si>
@@ -458,9 +451,6 @@
     <t>PID.15.3</t>
   </si>
   <si>
-    <t>iso639-2</t>
-  </si>
-  <si>
     <t>PID.16.1</t>
   </si>
   <si>
@@ -473,9 +463,6 @@
     <t>PID.16.3</t>
   </si>
   <si>
-    <t>HL70002</t>
-  </si>
-  <si>
     <t>PID.17.1</t>
   </si>
   <si>
@@ -491,9 +478,6 @@
     <t>PID.17.3</t>
   </si>
   <si>
-    <t>HL70006</t>
-  </si>
-  <si>
     <t>PID.18</t>
   </si>
   <si>
@@ -806,75 +790,9 @@
     <t>Transformation</t>
   </si>
   <si>
-    <t>patient_data.title</t>
-  </si>
-  <si>
-    <t>patient_data.language</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>patient_data.lname</t>
-  </si>
-  <si>
-    <t>patient_data.fname</t>
-  </si>
-  <si>
-    <t>patient_data.mname</t>
-  </si>
-  <si>
-    <t>patient_data.dob</t>
-  </si>
-  <si>
-    <t>Convert from yyyy-mm-dd to  yyyymmdd</t>
-  </si>
-  <si>
-    <t>patient_data.street</t>
-  </si>
-  <si>
-    <t>patient_data.city</t>
-  </si>
-  <si>
-    <t>patient_data.state</t>
-  </si>
-  <si>
-    <t>patient_data.religion</t>
-  </si>
-  <si>
     <t>15222</t>
   </si>
   <si>
-    <t>patient_data.postal_code</t>
-  </si>
-  <si>
-    <t>patient_data.country_code</t>
-  </si>
-  <si>
-    <t>patient_data.ss</t>
-  </si>
-  <si>
-    <t>patient_data.phone_cell</t>
-  </si>
-  <si>
-    <t>patient_data.status</t>
-  </si>
-  <si>
-    <t>patient_data.sex</t>
-  </si>
-  <si>
-    <t>patient_data.email</t>
-  </si>
-  <si>
-    <t>patient_data.race</t>
-  </si>
-  <si>
-    <t>patient_data.pubpid</t>
-  </si>
-  <si>
-    <t>patient_mothersname</t>
-  </si>
-  <si>
     <t>We shall be sending an empty segment for ADT_A04</t>
   </si>
   <si>
@@ -935,9 +853,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>Refer to Table 0005 in Table Tab</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -962,9 +877,6 @@
     <t>UNK</t>
   </si>
   <si>
-    <t>Refer to Table 0001 in Table Tab</t>
-  </si>
-  <si>
     <t>abkhazian</t>
   </si>
   <si>
@@ -2072,9 +1984,6 @@
     <t>aar</t>
   </si>
   <si>
-    <t>Refer to Table  0296 in Table Tab</t>
-  </si>
-  <si>
     <t>Separated</t>
   </si>
   <si>
@@ -2126,9 +2035,6 @@
     <t>Table  0002 - Marital Status</t>
   </si>
   <si>
-    <t>Refer to Table  0002 - Marital Status</t>
-  </si>
-  <si>
     <t>adventist</t>
   </si>
   <si>
@@ -3102,12 +3008,76 @@
   </si>
   <si>
     <t>Table  0006 - Religion</t>
+  </si>
+  <si>
+    <t>FNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we have to prefix MRN </t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>NationalID</t>
+  </si>
+  <si>
+    <t>FMG</t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>MiddleInitial</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>MothersMaiden</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Convert from m/d/yyyy to  yyyymmdd</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female &gt;&gt;&gt; F
+male &gt;&gt;&gt; M
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female &gt;&gt;&gt; Female
+male &gt;&gt;&gt; Male
+</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>TelephoneNumber</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3370,7 +3340,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3415,6 +3385,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -3696,47 +3669,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7348DB8F-F69B-40C2-853C-95EA98B4B797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3744,7 +3717,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3755,12 +3728,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,12 +3744,12 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3787,12 +3760,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3803,14 +3776,14 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3821,12 +3794,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3837,14 +3810,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3855,14 +3828,14 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -3876,19 +3849,19 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -3899,12 +3872,12 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -3915,12 +3888,12 @@
         <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -3931,12 +3904,12 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -3947,14 +3920,14 @@
         <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -3965,12 +3938,12 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -3981,14 +3954,14 @@
         <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3996,7 +3969,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
@@ -4010,7 +3983,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
@@ -4021,14 +3994,14 @@
         <v>19</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4036,7 +4009,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
@@ -4050,7 +4023,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>47</v>
       </c>
@@ -4064,19 +4037,19 @@
       <c r="E23" s="30"/>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>49</v>
       </c>
@@ -4087,14 +4060,16 @@
         <v>51</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>221</v>
+        <v>987</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>52</v>
       </c>
@@ -4108,7 +4083,7 @@
       <c r="E26" s="32"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>54</v>
       </c>
@@ -4122,7 +4097,7 @@
       <c r="E27" s="32"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>56</v>
       </c>
@@ -4132,13 +4107,13 @@
       <c r="C28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>220</v>
+      <c r="D28" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>59</v>
       </c>
@@ -4149,24 +4124,24 @@
         <v>61</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>49</v>
       </c>
@@ -4174,17 +4149,17 @@
         <v>50</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>267</v>
+        <v>987</v>
+      </c>
+      <c r="E31" t="s">
+        <v>990</v>
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>52</v>
       </c>
@@ -4198,7 +4173,7 @@
       <c r="E32" s="32"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -4210,7 +4185,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -4221,12 +4196,12 @@
         <v>58</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>59</v>
       </c>
@@ -4234,15 +4209,15 @@
         <v>60</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>62</v>
       </c>
@@ -4256,19 +4231,19 @@
       <c r="E36" s="34"/>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>64</v>
       </c>
@@ -4279,14 +4254,14 @@
         <v>66</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>255</v>
+        <v>987</v>
+      </c>
+      <c r="E38" t="s">
+        <v>993</v>
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>67</v>
       </c>
@@ -4297,14 +4272,14 @@
         <v>69</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>256</v>
+        <v>987</v>
+      </c>
+      <c r="E39" t="s">
+        <v>992</v>
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>70</v>
       </c>
@@ -4315,14 +4290,14 @@
         <v>72</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>257</v>
+        <v>987</v>
+      </c>
+      <c r="E40" t="s">
+        <v>994</v>
       </c>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>73</v>
       </c>
@@ -4336,7 +4311,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>75</v>
       </c>
@@ -4347,14 +4322,14 @@
         <v>77</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>252</v>
+        <v>987</v>
+      </c>
+      <c r="E42" t="s">
+        <v>995</v>
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -4368,7 +4343,7 @@
       <c r="E43" s="32"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>80</v>
       </c>
@@ -4379,12 +4354,12 @@
         <v>82</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>83</v>
       </c>
@@ -4395,14 +4370,14 @@
         <v>85</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>221</v>
+        <v>987</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>274</v>
+        <v>996</v>
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>86</v>
       </c>
@@ -4413,28 +4388,28 @@
         <v>88</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>221</v>
+        <v>987</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>258</v>
+        <v>997</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>89</v>
       </c>
@@ -4444,17 +4419,17 @@
       <c r="C48" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="30" t="s">
+        <v>987</v>
+      </c>
+      <c r="E48" t="s">
+        <v>999</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>92</v>
       </c>
@@ -4464,17 +4439,17 @@
       <c r="C49" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="30" t="s">
+        <v>987</v>
+      </c>
+      <c r="E49" t="s">
+        <v>999</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>95</v>
       </c>
@@ -4485,12 +4460,12 @@
         <v>97</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>98</v>
       </c>
@@ -4504,110 +4479,90 @@
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="19"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="19"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="C57" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F57" s="32"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>22</v>
@@ -4616,100 +4571,100 @@
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="D59" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="32"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="B60" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="D60" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F61" s="32"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="F61" s="32"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="D62" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="F62" s="32"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="F62" s="32"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="B63" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="C63" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="D63" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>22</v>
@@ -4718,12 +4673,12 @@
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>128</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>22</v>
@@ -4732,12 +4687,12 @@
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>22</v>
@@ -4746,216 +4701,156 @@
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="19"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="19"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="19"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="19"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
       <c r="F75" s="35"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="19"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="19"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B78" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C79" s="25" t="s">
         <v>22</v>
@@ -4964,12 +4859,12 @@
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>22</v>
@@ -4978,12 +4873,12 @@
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C81" s="25" t="s">
         <v>22</v>
@@ -4992,12 +4887,12 @@
       <c r="E81" s="34"/>
       <c r="F81" s="34"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C82" s="25" t="s">
         <v>22</v>
@@ -5006,12 +4901,12 @@
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>22</v>
@@ -5020,12 +4915,12 @@
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>22</v>
@@ -5034,12 +4929,12 @@
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>22</v>
@@ -5048,12 +4943,12 @@
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>22</v>
@@ -5062,12 +4957,12 @@
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>22</v>
@@ -5076,12 +4971,12 @@
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C88" s="25" t="s">
         <v>22</v>
@@ -5090,12 +4985,12 @@
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>22</v>
@@ -5104,12 +4999,12 @@
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>22</v>
@@ -5118,12 +5013,12 @@
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C91" s="25" t="s">
         <v>22</v>
@@ -5132,12 +5027,12 @@
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>22</v>
@@ -5146,12 +5041,12 @@
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>22</v>
@@ -5160,12 +5055,12 @@
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C94" s="25" t="s">
         <v>22</v>
@@ -5174,12 +5069,12 @@
       <c r="E94" s="34"/>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>22</v>
@@ -5188,12 +5083,12 @@
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>22</v>
@@ -5202,12 +5097,12 @@
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>22</v>
@@ -5216,12 +5111,12 @@
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>22</v>
@@ -5230,12 +5125,12 @@
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>22</v>
@@ -5244,12 +5139,12 @@
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C100" s="25" t="s">
         <v>22</v>
@@ -5258,24 +5153,24 @@
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
       <c r="F101" s="35"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>22</v>
@@ -5284,44 +5179,44 @@
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>22</v>
@@ -5330,12 +5225,12 @@
       <c r="E105" s="32"/>
       <c r="F105" s="32"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>22</v>
@@ -5344,101 +5239,101 @@
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="32"/>
       <c r="E107" s="32"/>
       <c r="F107" s="32"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>221</v>
+        <v>991</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>268</v>
+        <v>1005</v>
       </c>
       <c r="F108" s="33"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
       <c r="F109" s="35"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="32"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="32"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>221</v>
+        <v>991</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>271</v>
+        <v>1006</v>
       </c>
       <c r="F112" s="33"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5446,9 +5341,9 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B114" s="17"/>
       <c r="C114" s="17" t="s">
@@ -5465,113 +5360,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E299"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="27" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>103</v>
@@ -5583,43 +5478,43 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>94</v>
       </c>
@@ -5633,3188 +5528,3188 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D19" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="C20" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="27" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="C205" s="27"/>
       <c r="D205" s="27"/>
       <c r="E205" s="27"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="28" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E206" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="27" t="s">
-        <v>1017</v>
+        <v>986</v>
       </c>
       <c r="C215" s="27"/>
       <c r="D215" s="27"/>
       <c r="E215" s="27"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="28" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="E217" s="29" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218" s="29" t="s">
+        <v>664</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E218" s="29" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="E219" s="29" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="E220" s="29" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E221" s="29" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B222" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="C222" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="E222" s="29" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B223" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="E223" s="29" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="D224" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="E224" s="29" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B225" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C225" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="D225" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E225" s="29" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="E226" s="29" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="E227" s="29" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B228" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="E228" s="29" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B229" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="E229" s="29" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B230" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="E230" s="29" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B231" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>854</v>
+      </c>
+      <c r="E231" s="29" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B232" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="C232" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="C217" s="29" t="s">
+      <c r="D232" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B233" s="29" t="s">
         <v>694</v>
       </c>
-      <c r="D217" s="29" t="s">
-        <v>857</v>
-      </c>
-      <c r="E217" s="29" t="s">
+      <c r="C233" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="D233" s="29" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="C218" s="29" t="s">
+      <c r="E233" s="29" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B234" s="29" t="s">
         <v>696</v>
       </c>
-      <c r="D218" s="29" t="s">
-        <v>859</v>
-      </c>
-      <c r="E218" s="29" t="s">
+      <c r="C234" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="D234" s="29" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="C219" s="29" t="s">
+      <c r="E234" s="29" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B235" s="29" t="s">
         <v>698</v>
       </c>
-      <c r="D219" s="29" t="s">
-        <v>861</v>
-      </c>
-      <c r="E219" s="29" t="s">
+      <c r="C235" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="D235" s="29" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="C220" s="29" t="s">
+      <c r="E235" s="29" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B236" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="D220" s="29" t="s">
-        <v>863</v>
-      </c>
-      <c r="E220" s="29" t="s">
+      <c r="C236" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="D236" s="29" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="C221" s="29" t="s">
+      <c r="E236" s="29" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="29" t="s">
         <v>702</v>
       </c>
-      <c r="D221" s="29" t="s">
-        <v>865</v>
-      </c>
-      <c r="E221" s="29" t="s">
+      <c r="C237" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="D237" s="29" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="C222" s="29" t="s">
+      <c r="E237" s="29" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="D222" s="29" t="s">
-        <v>867</v>
-      </c>
-      <c r="E222" s="29" t="s">
+      <c r="C238" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D238" s="29" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="C223" s="29" t="s">
+      <c r="E238" s="29" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B239" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="D223" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="E223" s="29" t="s">
+      <c r="C239" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="D239" s="29" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="C224" s="29" t="s">
+      <c r="E239" s="29" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B240" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="D224" s="29" t="s">
-        <v>871</v>
-      </c>
-      <c r="E224" s="29" t="s">
+      <c r="C240" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="D240" s="29" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="C225" s="29" t="s">
+      <c r="E240" s="29" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B241" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="D225" s="29" t="s">
-        <v>873</v>
-      </c>
-      <c r="E225" s="29" t="s">
+      <c r="C241" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="D241" s="29" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="C226" s="29" t="s">
+      <c r="E241" s="29" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B242" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="D226" s="29" t="s">
-        <v>875</v>
-      </c>
-      <c r="E226" s="29" t="s">
+      <c r="C242" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="D242" s="29" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="C227" s="29" t="s">
+      <c r="E242" s="29" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B243" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="D227" s="29" t="s">
-        <v>877</v>
-      </c>
-      <c r="E227" s="29" t="s">
+      <c r="C243" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E243" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B244" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="D244" s="29" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="29" t="s">
-        <v>715</v>
-      </c>
-      <c r="C228" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="D228" s="29" t="s">
+      <c r="E244" s="29" t="s">
         <v>879</v>
       </c>
-      <c r="E228" s="29" t="s">
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B245" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="C245" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="D245" s="29" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="29" t="s">
-        <v>717</v>
-      </c>
-      <c r="C229" s="29" t="s">
-        <v>718</v>
-      </c>
-      <c r="D229" s="29" t="s">
+      <c r="E245" s="29" t="s">
         <v>881</v>
       </c>
-      <c r="E229" s="29" t="s">
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B246" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C246" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="D246" s="29" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="29" t="s">
-        <v>719</v>
-      </c>
-      <c r="C230" s="29" t="s">
-        <v>720</v>
-      </c>
-      <c r="D230" s="29" t="s">
+      <c r="E246" s="29" t="s">
         <v>883</v>
       </c>
-      <c r="E230" s="29" t="s">
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="C247" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="D247" s="29" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="29" t="s">
-        <v>721</v>
-      </c>
-      <c r="C231" s="29" t="s">
-        <v>722</v>
-      </c>
-      <c r="D231" s="29" t="s">
+      <c r="E247" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="E231" s="29" t="s">
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="C248" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="D248" s="29" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="29" t="s">
-        <v>723</v>
-      </c>
-      <c r="C232" s="29" t="s">
-        <v>724</v>
-      </c>
-      <c r="D232" s="29" t="s">
+      <c r="E248" s="29" t="s">
         <v>887</v>
       </c>
-      <c r="E232" s="29" t="s">
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B249" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="C249" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="D249" s="29" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B233" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="C233" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="D233" s="29" t="s">
+      <c r="E249" s="29" t="s">
         <v>889</v>
       </c>
-      <c r="E233" s="29" t="s">
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="C250" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="D250" s="29" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="C234" s="29" t="s">
-        <v>728</v>
-      </c>
-      <c r="D234" s="29" t="s">
+      <c r="E250" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="E234" s="29" t="s">
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B251" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="C251" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="D251" s="29" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="C235" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="D235" s="29" t="s">
+      <c r="E251" s="29" t="s">
         <v>893</v>
       </c>
-      <c r="E235" s="29" t="s">
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B252" s="29" t="s">
+        <v>732</v>
+      </c>
+      <c r="C252" s="29" t="s">
+        <v>733</v>
+      </c>
+      <c r="D252" s="29" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="29" t="s">
-        <v>731</v>
-      </c>
-      <c r="C236" s="29" t="s">
-        <v>732</v>
-      </c>
-      <c r="D236" s="29" t="s">
+      <c r="E252" s="29" t="s">
         <v>895</v>
       </c>
-      <c r="E236" s="29" t="s">
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="D253" s="29" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="29" t="s">
-        <v>733</v>
-      </c>
-      <c r="C237" s="29" t="s">
-        <v>734</v>
-      </c>
-      <c r="D237" s="29" t="s">
+      <c r="E253" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="E237" s="29" t="s">
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B254" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="C254" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="D254" s="29" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="29" t="s">
-        <v>735</v>
-      </c>
-      <c r="C238" s="29" t="s">
-        <v>736</v>
-      </c>
-      <c r="D238" s="29" t="s">
+      <c r="E254" s="29" t="s">
         <v>899</v>
       </c>
-      <c r="E238" s="29" t="s">
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B255" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="C255" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="D255" s="29" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="29" t="s">
-        <v>737</v>
-      </c>
-      <c r="C239" s="29" t="s">
-        <v>738</v>
-      </c>
-      <c r="D239" s="29" t="s">
+      <c r="E255" s="29" t="s">
         <v>901</v>
       </c>
-      <c r="E239" s="29" t="s">
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B256" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="C256" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="D256" s="29" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="C240" s="29" t="s">
-        <v>740</v>
-      </c>
-      <c r="D240" s="29" t="s">
+      <c r="E256" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="E240" s="29" t="s">
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B257" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="C257" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="D257" s="29" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B241" s="29" t="s">
-        <v>741</v>
-      </c>
-      <c r="C241" s="29" t="s">
-        <v>742</v>
-      </c>
-      <c r="D241" s="29" t="s">
+      <c r="E257" s="29" t="s">
         <v>905</v>
       </c>
-      <c r="E241" s="29" t="s">
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B258" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="C258" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="D258" s="29" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="29" t="s">
-        <v>743</v>
-      </c>
-      <c r="C242" s="29" t="s">
-        <v>744</v>
-      </c>
-      <c r="D242" s="29" t="s">
+      <c r="E258" s="29" t="s">
         <v>907</v>
       </c>
-      <c r="E242" s="29" t="s">
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B259" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C259" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="D259" s="29" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="29" t="s">
-        <v>745</v>
-      </c>
-      <c r="C243" s="29" t="s">
-        <v>746</v>
-      </c>
-      <c r="D243" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E243" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="29" t="s">
-        <v>747</v>
-      </c>
-      <c r="C244" s="29" t="s">
+      <c r="E259" s="29" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="29" t="s">
         <v>748</v>
       </c>
-      <c r="D244" s="29" t="s">
-        <v>909</v>
-      </c>
-      <c r="E244" s="29" t="s">
+      <c r="C260" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="D260" s="29" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B245" s="29" t="s">
-        <v>749</v>
-      </c>
-      <c r="C245" s="29" t="s">
+      <c r="E260" s="29" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="29" t="s">
         <v>750</v>
       </c>
-      <c r="D245" s="29" t="s">
-        <v>911</v>
-      </c>
-      <c r="E245" s="29" t="s">
+      <c r="C261" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="D261" s="29" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B246" s="29" t="s">
-        <v>751</v>
-      </c>
-      <c r="C246" s="29" t="s">
+      <c r="E261" s="29" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B262" s="29" t="s">
         <v>752</v>
       </c>
-      <c r="D246" s="29" t="s">
-        <v>913</v>
-      </c>
-      <c r="E246" s="29" t="s">
+      <c r="C262" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D262" s="29" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B247" s="29" t="s">
+      <c r="E262" s="29" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B263" s="29" t="s">
+        <v>754</v>
+      </c>
+      <c r="C263" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="D263" s="29" t="s">
+        <v>916</v>
+      </c>
+      <c r="E263" s="29" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B264" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="C264" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="D264" s="29" t="s">
+        <v>918</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B265" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="C265" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="D265" s="29" t="s">
+        <v>920</v>
+      </c>
+      <c r="E265" s="29" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B266" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="C266" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="D266" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="E266" s="29" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B267" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="C267" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="D267" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="E267" s="29" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B268" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D268" s="29" t="s">
+        <v>926</v>
+      </c>
+      <c r="E268" s="29" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B269" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="C269" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="D269" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="E269" s="29" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B270" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="C270" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="D270" s="29" t="s">
+        <v>930</v>
+      </c>
+      <c r="E270" s="29" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B271" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="C271" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="E271" s="29" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B272" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C272" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="D272" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="E272" s="29" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B273" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="D273" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="E273" s="29" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B274" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="E274" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="C247" s="29" t="s">
-        <v>754</v>
-      </c>
-      <c r="D247" s="29" t="s">
-        <v>915</v>
-      </c>
-      <c r="E247" s="29" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B248" s="29" t="s">
-        <v>755</v>
-      </c>
-      <c r="C248" s="29" t="s">
-        <v>756</v>
-      </c>
-      <c r="D248" s="29" t="s">
-        <v>917</v>
-      </c>
-      <c r="E248" s="29" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B249" s="29" t="s">
-        <v>757</v>
-      </c>
-      <c r="C249" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="D249" s="29" t="s">
-        <v>919</v>
-      </c>
-      <c r="E249" s="29" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B250" s="29" t="s">
-        <v>759</v>
-      </c>
-      <c r="C250" s="29" t="s">
-        <v>760</v>
-      </c>
-      <c r="D250" s="29" t="s">
-        <v>921</v>
-      </c>
-      <c r="E250" s="29" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B251" s="29" t="s">
-        <v>761</v>
-      </c>
-      <c r="C251" s="29" t="s">
-        <v>762</v>
-      </c>
-      <c r="D251" s="29" t="s">
-        <v>923</v>
-      </c>
-      <c r="E251" s="29" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B252" s="29" t="s">
-        <v>763</v>
-      </c>
-      <c r="C252" s="29" t="s">
-        <v>764</v>
-      </c>
-      <c r="D252" s="29" t="s">
-        <v>925</v>
-      </c>
-      <c r="E252" s="29" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B253" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="C253" s="29" t="s">
-        <v>766</v>
-      </c>
-      <c r="D253" s="29" t="s">
-        <v>927</v>
-      </c>
-      <c r="E253" s="29" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="C254" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="D254" s="29" t="s">
-        <v>929</v>
-      </c>
-      <c r="E254" s="29" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B255" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="C255" s="29" t="s">
-        <v>770</v>
-      </c>
-      <c r="D255" s="29" t="s">
-        <v>931</v>
-      </c>
-      <c r="E255" s="29" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B256" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="C256" s="29" t="s">
-        <v>772</v>
-      </c>
-      <c r="D256" s="29" t="s">
-        <v>933</v>
-      </c>
-      <c r="E256" s="29" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B257" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="C257" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D257" s="29" t="s">
-        <v>935</v>
-      </c>
-      <c r="E257" s="29" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B258" s="29" t="s">
-        <v>775</v>
-      </c>
-      <c r="C258" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="D258" s="29" t="s">
-        <v>937</v>
-      </c>
-      <c r="E258" s="29" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B259" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="C259" s="29" t="s">
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B275" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="D259" s="29" t="s">
+      <c r="C275" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="D275" s="29" t="s">
         <v>939</v>
       </c>
-      <c r="E259" s="29" t="s">
+      <c r="E275" s="29" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B260" s="29" t="s">
-        <v>779</v>
-      </c>
-      <c r="C260" s="29" t="s">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B276" s="29" t="s">
         <v>780</v>
       </c>
-      <c r="D260" s="29" t="s">
+      <c r="C276" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="D276" s="29" t="s">
         <v>941</v>
       </c>
-      <c r="E260" s="29" t="s">
+      <c r="E276" s="29" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B261" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="C261" s="29" t="s">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B277" s="29" t="s">
         <v>782</v>
       </c>
-      <c r="D261" s="29" t="s">
+      <c r="C277" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="D277" s="29" t="s">
         <v>943</v>
       </c>
-      <c r="E261" s="29" t="s">
+      <c r="E277" s="29" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B262" s="29" t="s">
-        <v>783</v>
-      </c>
-      <c r="C262" s="29" t="s">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B278" s="29" t="s">
         <v>784</v>
       </c>
-      <c r="D262" s="29" t="s">
+      <c r="C278" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D278" s="29" t="s">
         <v>945</v>
       </c>
-      <c r="E262" s="29" t="s">
+      <c r="E278" s="29" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B263" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="C263" s="29" t="s">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B279" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="D263" s="29" t="s">
+      <c r="C279" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="D279" s="29" t="s">
         <v>947</v>
       </c>
-      <c r="E263" s="29" t="s">
+      <c r="E279" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B280" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="D280" s="29" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B264" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="C264" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="D264" s="29" t="s">
+      <c r="E280" s="29" t="s">
         <v>949</v>
       </c>
-      <c r="E264" s="29" t="s">
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B281" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="D281" s="29" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B265" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="C265" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="D265" s="29" t="s">
+      <c r="E281" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="E265" s="29" t="s">
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B282" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="C282" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="D282" s="29" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B266" s="29" t="s">
-        <v>791</v>
-      </c>
-      <c r="C266" s="29" t="s">
-        <v>792</v>
-      </c>
-      <c r="D266" s="29" t="s">
+      <c r="E282" s="29" t="s">
         <v>953</v>
       </c>
-      <c r="E266" s="29" t="s">
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B283" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="C283" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="D283" s="29" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B267" s="29" t="s">
-        <v>793</v>
-      </c>
-      <c r="C267" s="29" t="s">
-        <v>794</v>
-      </c>
-      <c r="D267" s="29" t="s">
+      <c r="E283" s="29" t="s">
         <v>955</v>
       </c>
-      <c r="E267" s="29" t="s">
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B284" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="D284" s="29" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B268" s="29" t="s">
-        <v>795</v>
-      </c>
-      <c r="C268" s="29" t="s">
-        <v>796</v>
-      </c>
-      <c r="D268" s="29" t="s">
+      <c r="E284" s="29" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B285" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="D285" s="29" t="s">
         <v>957</v>
       </c>
-      <c r="E268" s="29" t="s">
+      <c r="E285" s="29" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B269" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="C269" s="29" t="s">
-        <v>798</v>
-      </c>
-      <c r="D269" s="29" t="s">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B286" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="D286" s="29" t="s">
         <v>959</v>
       </c>
-      <c r="E269" s="29" t="s">
+      <c r="E286" s="29" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B270" s="29" t="s">
-        <v>799</v>
-      </c>
-      <c r="C270" s="29" t="s">
-        <v>800</v>
-      </c>
-      <c r="D270" s="29" t="s">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B287" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="C287" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="D287" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="E270" s="29" t="s">
+      <c r="E287" s="29" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B271" s="29" t="s">
-        <v>801</v>
-      </c>
-      <c r="C271" s="29" t="s">
-        <v>802</v>
-      </c>
-      <c r="D271" s="29" t="s">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B288" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="C288" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="D288" s="29" t="s">
         <v>963</v>
       </c>
-      <c r="E271" s="29" t="s">
+      <c r="E288" s="29" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B272" s="29" t="s">
-        <v>803</v>
-      </c>
-      <c r="C272" s="29" t="s">
-        <v>804</v>
-      </c>
-      <c r="D272" s="29" t="s">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B289" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C289" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="D289" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="E272" s="29" t="s">
+      <c r="E289" s="29" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B273" s="29" t="s">
-        <v>805</v>
-      </c>
-      <c r="C273" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="D273" s="29" t="s">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B290" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="C290" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="D290" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="E273" s="29" t="s">
+      <c r="E290" s="29" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B274" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="C274" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="D274" s="29" t="s">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B291" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="C291" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="D291" s="29" t="s">
         <v>969</v>
       </c>
-      <c r="E274" s="29" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B275" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="C275" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="D275" s="29" t="s">
+      <c r="E291" s="29" t="s">
         <v>970</v>
       </c>
-      <c r="E275" s="29" t="s">
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B292" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="C292" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="D292" s="29" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B276" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="C276" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="D276" s="29" t="s">
+      <c r="E292" s="29" t="s">
         <v>972</v>
       </c>
-      <c r="E276" s="29" t="s">
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B293" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="C293" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="D293" s="29" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B277" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="C277" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="D277" s="29" t="s">
+      <c r="E293" s="29" t="s">
         <v>974</v>
       </c>
-      <c r="E277" s="29" t="s">
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B294" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="C294" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="D294" s="29" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B278" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="C278" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="D278" s="29" t="s">
+      <c r="E294" s="29" t="s">
         <v>976</v>
       </c>
-      <c r="E278" s="29" t="s">
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B295" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C295" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="D295" s="29" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B279" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="C279" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="D279" s="29" t="s">
+      <c r="E295" s="29" t="s">
         <v>978</v>
       </c>
-      <c r="E279" s="29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="C280" s="29" t="s">
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B296" s="29" t="s">
         <v>820</v>
       </c>
-      <c r="D280" s="29" t="s">
+      <c r="C296" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="D296" s="29" t="s">
         <v>979</v>
       </c>
-      <c r="E280" s="29" t="s">
+      <c r="E296" s="29" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B281" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="C281" s="29" t="s">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B297" s="29" t="s">
         <v>822</v>
       </c>
-      <c r="D281" s="29" t="s">
+      <c r="C297" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="D297" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="E281" s="29" t="s">
+      <c r="E297" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B298" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="C298" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="D298" s="29" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B282" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="C282" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="D282" s="29" t="s">
+      <c r="E298" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="E282" s="29" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="C283" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="D283" s="29" t="s">
-        <v>985</v>
-      </c>
-      <c r="E283" s="29" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C284" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="D284" s="29" t="s">
-        <v>987</v>
-      </c>
-      <c r="E284" s="29" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B285" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="C285" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="D285" s="29" t="s">
-        <v>988</v>
-      </c>
-      <c r="E285" s="29" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B286" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="C286" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="D286" s="29" t="s">
-        <v>990</v>
-      </c>
-      <c r="E286" s="29" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B287" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="C287" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="D287" s="29" t="s">
-        <v>992</v>
-      </c>
-      <c r="E287" s="29" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B288" s="29" t="s">
-        <v>835</v>
-      </c>
-      <c r="C288" s="29" t="s">
-        <v>836</v>
-      </c>
-      <c r="D288" s="29" t="s">
-        <v>994</v>
-      </c>
-      <c r="E288" s="29" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B289" s="29" t="s">
-        <v>837</v>
-      </c>
-      <c r="C289" s="29" t="s">
-        <v>838</v>
-      </c>
-      <c r="D289" s="29" t="s">
-        <v>996</v>
-      </c>
-      <c r="E289" s="29" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B290" s="29" t="s">
-        <v>839</v>
-      </c>
-      <c r="C290" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="D290" s="29" t="s">
-        <v>998</v>
-      </c>
-      <c r="E290" s="29" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B291" s="29" t="s">
-        <v>841</v>
-      </c>
-      <c r="C291" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="D291" s="29" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E291" s="29" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B292" s="29" t="s">
-        <v>843</v>
-      </c>
-      <c r="C292" s="29" t="s">
-        <v>844</v>
-      </c>
-      <c r="D292" s="29" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E292" s="29" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B293" s="29" t="s">
-        <v>845</v>
-      </c>
-      <c r="C293" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="D293" s="29" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E293" s="29" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B294" s="29" t="s">
-        <v>847</v>
-      </c>
-      <c r="C294" s="29" t="s">
-        <v>848</v>
-      </c>
-      <c r="D294" s="29" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E294" s="29" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B295" s="29" t="s">
-        <v>849</v>
-      </c>
-      <c r="C295" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="D295" s="29" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E295" s="29" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B296" s="29" t="s">
-        <v>851</v>
-      </c>
-      <c r="C296" s="29" t="s">
-        <v>852</v>
-      </c>
-      <c r="D296" s="29" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E296" s="29" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B297" s="29" t="s">
-        <v>853</v>
-      </c>
-      <c r="C297" s="29" t="s">
-        <v>854</v>
-      </c>
-      <c r="D297" s="29" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E297" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B298" s="29" t="s">
-        <v>855</v>
-      </c>
-      <c r="C298" s="29" t="s">
-        <v>856</v>
-      </c>
-      <c r="D298" s="29" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E298" s="29" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B299" s="29"/>
       <c r="C299" s="29"/>
       <c r="D299" s="29" t="s">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="E299" s="29" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
